--- a/testing/human_evaluation/human_evaluation_raw_data_and_visualization.xlsx
+++ b/testing/human_evaluation/human_evaluation_raw_data_and_visualization.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimberly Kent\Documents\Master\HS23\Masterarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimberly Kent\Documents\Master\HS23\Masterarbeit\Masters-Thesis\testing\human_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E132903B-A8B4-406B-84BD-61E5A82295BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A215684D-C112-4984-8498-C3B6CD16CDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="797" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="raw_data_intent-less" sheetId="1" r:id="rId1"/>
-    <sheet name="raw_data_intent-based" sheetId="3" r:id="rId2"/>
-    <sheet name="evaluation_intent_based" sheetId="2" r:id="rId3"/>
-    <sheet name="evaluation_intent-less" sheetId="4" r:id="rId4"/>
+    <sheet name="raw_data_intent-based" sheetId="3" r:id="rId1"/>
+    <sheet name="raw_data_intent-less" sheetId="1" r:id="rId2"/>
+    <sheet name="evaluation_intent-based" sheetId="4" r:id="rId3"/>
+    <sheet name="evaluation_intent_less" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Where the chatbot responses easy to understand?</t>
   </si>
   <si>
-    <t>Selten </t>
-  </si>
-  <si>
     <t>nicht hilfreich</t>
   </si>
   <si>
@@ -230,13 +227,19 @@
   <si>
     <t>Did the chatbot work the way you expected?</t>
   </si>
+  <si>
+    <t>Selten</t>
+  </si>
+  <si>
+    <t>Was the pace of interaction with the chatbot appropriate?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -339,9 +342,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -352,11 +355,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +409,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -417,10 +418,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -429,10 +430,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC24D2C"/>
+      <color rgb="FF394A51"/>
       <color rgb="FF1A2639"/>
-      <color rgb="FFC24D2C"/>
+      <color rgb="FFD9DAD7"/>
       <color rgb="FF3E4A61"/>
-      <color rgb="FFD9DAD7"/>
     </mruColors>
   </colors>
   <extLst>
@@ -472,7 +474,995 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>evaluation_intent_based!$B$2</c:f>
+              <c:f>'evaluation_intent-based'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Very Rarely</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C24D2C"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CH"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'evaluation_intent-based'!$A$11:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Where the chatbot responses easy to understand?</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Was the chatbot able to understand what you typed?</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Were the chatbot responses appropriate given your inputs?</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Was it easy to get the responses you wanted?</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Was the pace of interaction with the chatbot appropriate?</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Was it easy for you to decide what to say at each moment?</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>How often was the chatbot sluggish and slow to reply?</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Did the chatbot work the way you expected?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'evaluation_intent-based'!$B$11:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-489F-403F-A9BD-13F2EB60F03C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'evaluation_intent-based'!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rarely</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-F57C-4968-BBF6-D4F21B0FA22C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CH"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'evaluation_intent-based'!$A$11:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Where the chatbot responses easy to understand?</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Was the chatbot able to understand what you typed?</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Were the chatbot responses appropriate given your inputs?</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Was it easy to get the responses you wanted?</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Was the pace of interaction with the chatbot appropriate?</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Was it easy for you to decide what to say at each moment?</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>How often was the chatbot sluggish and slow to reply?</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Did the chatbot work the way you expected?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'evaluation_intent-based'!$C$11:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-489F-403F-A9BD-13F2EB60F03C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'evaluation_intent-based'!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sometimes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="D9DAD7"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CH"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'evaluation_intent-based'!$A$11:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Where the chatbot responses easy to understand?</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Was the chatbot able to understand what you typed?</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Were the chatbot responses appropriate given your inputs?</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Was it easy to get the responses you wanted?</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Was the pace of interaction with the chatbot appropriate?</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Was it easy for you to decide what to say at each moment?</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>How often was the chatbot sluggish and slow to reply?</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Did the chatbot work the way you expected?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'evaluation_intent-based'!$D$11:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-489F-403F-A9BD-13F2EB60F03C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'evaluation_intent-based'!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Often</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3E4A61"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CH"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'evaluation_intent-based'!$A$11:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Where the chatbot responses easy to understand?</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Was the chatbot able to understand what you typed?</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Were the chatbot responses appropriate given your inputs?</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Was it easy to get the responses you wanted?</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Was the pace of interaction with the chatbot appropriate?</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Was it easy for you to decide what to say at each moment?</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>How often was the chatbot sluggish and slow to reply?</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Did the chatbot work the way you expected?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'evaluation_intent-based'!$E$11:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-489F-403F-A9BD-13F2EB60F03C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'evaluation_intent-based'!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Very Often</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="1A2639"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CH"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'evaluation_intent-based'!$A$11:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Where the chatbot responses easy to understand?</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Was the chatbot able to understand what you typed?</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Were the chatbot responses appropriate given your inputs?</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Was it easy to get the responses you wanted?</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Was the pace of interaction with the chatbot appropriate?</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Was it easy for you to decide what to say at each moment?</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>How often was the chatbot sluggish and slow to reply?</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Did the chatbot work the way you expected?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'evaluation_intent-based'!$F$11:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-489F-403F-A9BD-13F2EB60F03C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="975478224"/>
+        <c:axId val="1013469856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="975478224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013469856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1013469856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="975478224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'evaluation_intent-based'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -493,7 +1483,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>evaluation_intent_based!$A$3:$A$8</c:f>
+              <c:f>'evaluation_intent-based'!$A$3:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -519,7 +1509,584 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>evaluation_intent_based!$B$3:$B$8</c:f>
+              <c:f>'evaluation_intent-based'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F422-48A7-A2CB-B704929F6EDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'evaluation_intent-based'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acceptable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="D9DAD7"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CH"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'evaluation_intent-based'!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Question 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Question 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Question 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Question 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Question 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Question 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'evaluation_intent-based'!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F422-48A7-A2CB-B704929F6EDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'evaluation_intent-based'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Helpful</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="1A2639"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CH"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'evaluation_intent-based'!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Question 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Question 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Question 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Question 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Question 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Question 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'evaluation_intent-based'!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F422-48A7-A2CB-B704929F6EDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="975459024"/>
+        <c:axId val="1023784912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="975459024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1023784912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1023784912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="975459024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>evaluation_intent_less!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not Helpful</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C24D2C"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>evaluation_intent_less!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Question 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Question 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Question 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Question 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Question 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Question 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>evaluation_intent_less!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -555,7 +2122,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>evaluation_intent_based!$C$2</c:f>
+              <c:f>evaluation_intent_less!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -634,7 +2201,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>evaluation_intent_based!$A$3:$A$8</c:f>
+              <c:f>evaluation_intent_less!$A$3:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -660,7 +2227,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>evaluation_intent_based!$C$3:$C$8</c:f>
+              <c:f>evaluation_intent_less!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -696,7 +2263,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>evaluation_intent_based!$D$2</c:f>
+              <c:f>evaluation_intent_less!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -772,7 +2339,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>evaluation_intent_based!$A$3:$A$8</c:f>
+              <c:f>evaluation_intent_less!$A$3:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -798,7 +2365,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>evaluation_intent_based!$D$3:$D$8</c:f>
+              <c:f>evaluation_intent_less!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1032,7 +2599,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1058,7 +2625,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>evaluation_intent_based!$B$10</c:f>
+              <c:f>evaluation_intent_less!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1069,7 +2636,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C24D2C"/>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1094,10 +2664,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
@@ -1137,7 +2704,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>evaluation_intent_based!$A$11:$A$18</c:f>
+              <c:f>evaluation_intent_less!$A$11:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1169,7 +2736,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>evaluation_intent_based!$B$11:$B$18</c:f>
+              <c:f>evaluation_intent_less!$B$11:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1211,7 +2778,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>evaluation_intent_based!$C$10</c:f>
+              <c:f>evaluation_intent_less!$C$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1232,7 +2799,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>evaluation_intent_based!$A$11:$A$18</c:f>
+              <c:f>evaluation_intent_less!$A$11:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1264,7 +2831,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>evaluation_intent_based!$C$11:$C$18</c:f>
+              <c:f>evaluation_intent_less!$C$11:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1306,7 +2873,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>evaluation_intent_based!$D$10</c:f>
+              <c:f>evaluation_intent_less!$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1385,7 +2952,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>evaluation_intent_based!$A$11:$A$18</c:f>
+              <c:f>evaluation_intent_less!$A$11:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1417,7 +2984,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>evaluation_intent_based!$D$11:$D$18</c:f>
+              <c:f>evaluation_intent_less!$D$11:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1459,7 +3026,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>evaluation_intent_based!$E$10</c:f>
+              <c:f>evaluation_intent_less!$E$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1535,7 +3102,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>evaluation_intent_based!$A$11:$A$18</c:f>
+              <c:f>evaluation_intent_less!$A$11:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1567,7 +3134,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>evaluation_intent_based!$E$11:$E$18</c:f>
+              <c:f>evaluation_intent_less!$E$11:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1609,7 +3176,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>evaluation_intent_based!$F$10</c:f>
+              <c:f>evaluation_intent_less!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1685,7 +3252,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>evaluation_intent_based!$A$11:$A$18</c:f>
+              <c:f>evaluation_intent_less!$A$11:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1717,7 +3284,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>evaluation_intent_based!$F$11:$F$18</c:f>
+              <c:f>evaluation_intent_less!$F$11:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1868,1499 +3435,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="975468624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="percentStacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'evaluation_intent-less'!$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Very Rarely</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C24D2C"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-CH"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'evaluation_intent-less'!$A$11:$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Where the chatbot responses easy to understand?</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Was the chatbot able to understand what you typed?</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Were the chatbot responses appropriate given your inputs?</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Was it easy to get the responses you wanted?</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Was the pave of interaction with the chatbot appropriate?</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Was it easy for you to decide what to say at each moment?</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>How often was the chatbot sluggish and slow to reply?</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Did the chatbot work the way you expected?</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'evaluation_intent-less'!$B$11:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-489F-403F-A9BD-13F2EB60F03C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'evaluation_intent-less'!$C$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rarely</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'evaluation_intent-less'!$A$11:$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Where the chatbot responses easy to understand?</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Was the chatbot able to understand what you typed?</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Were the chatbot responses appropriate given your inputs?</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Was it easy to get the responses you wanted?</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Was the pave of interaction with the chatbot appropriate?</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Was it easy for you to decide what to say at each moment?</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>How often was the chatbot sluggish and slow to reply?</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Did the chatbot work the way you expected?</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'evaluation_intent-less'!$C$11:$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-489F-403F-A9BD-13F2EB60F03C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'evaluation_intent-less'!$D$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sometimes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="D9DAD7"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-CH"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'evaluation_intent-less'!$A$11:$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Where the chatbot responses easy to understand?</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Was the chatbot able to understand what you typed?</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Were the chatbot responses appropriate given your inputs?</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Was it easy to get the responses you wanted?</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Was the pave of interaction with the chatbot appropriate?</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Was it easy for you to decide what to say at each moment?</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>How often was the chatbot sluggish and slow to reply?</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Did the chatbot work the way you expected?</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'evaluation_intent-less'!$D$11:$D$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-489F-403F-A9BD-13F2EB60F03C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'evaluation_intent-less'!$E$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Often</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="3E4A61"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-CH"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'evaluation_intent-less'!$A$11:$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Where the chatbot responses easy to understand?</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Was the chatbot able to understand what you typed?</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Were the chatbot responses appropriate given your inputs?</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Was it easy to get the responses you wanted?</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Was the pave of interaction with the chatbot appropriate?</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Was it easy for you to decide what to say at each moment?</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>How often was the chatbot sluggish and slow to reply?</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Did the chatbot work the way you expected?</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'evaluation_intent-less'!$E$11:$E$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-489F-403F-A9BD-13F2EB60F03C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'evaluation_intent-less'!$F$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Very Often</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="1A2639"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-CH"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'evaluation_intent-less'!$A$11:$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Where the chatbot responses easy to understand?</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Was the chatbot able to understand what you typed?</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Were the chatbot responses appropriate given your inputs?</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Was it easy to get the responses you wanted?</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Was the pave of interaction with the chatbot appropriate?</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Was it easy for you to decide what to say at each moment?</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>How often was the chatbot sluggish and slow to reply?</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Did the chatbot work the way you expected?</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'evaluation_intent-less'!$F$11:$F$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-489F-403F-A9BD-13F2EB60F03C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="975478224"/>
-        <c:axId val="1013469856"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="975478224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1013469856"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1013469856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="975478224"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="percentStacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'evaluation_intent-less'!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Not Helpful</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="C24D2C"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'evaluation_intent-less'!$A$3:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Question 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Question 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Question 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Question 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Question 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Question 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'evaluation_intent-less'!$B$3:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F422-48A7-A2CB-B704929F6EDC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'evaluation_intent-less'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Acceptable</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="D9DAD7"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-CH"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'evaluation_intent-less'!$A$3:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Question 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Question 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Question 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Question 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Question 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Question 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'evaluation_intent-less'!$C$3:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F422-48A7-A2CB-B704929F6EDC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'evaluation_intent-less'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Helpful</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="1A2639"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-CH"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'evaluation_intent-less'!$A$3:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Question 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Question 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Question 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Question 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Question 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Question 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'evaluation_intent-less'!$D$3:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F422-48A7-A2CB-B704929F6EDC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="975459024"/>
-        <c:axId val="1023784912"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="975459024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1023784912"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1023784912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="975459024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5628,6 +5702,83 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>451302</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>166762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6335441E-1FB2-1A21-6D6B-559EF6C18D65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>420762</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>127453</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>97719</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F49D598-8B4F-21B4-6C7C-1FF89BF97B7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571789</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -5681,83 +5832,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C484F6A9-47FE-C798-D0C9-C32D0D220807}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>451302</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>4383</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>594178</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>166762</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6335441E-1FB2-1A21-6D6B-559EF6C18D65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>420762</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114048</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>127453</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>97719</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F49D598-8B4F-21B4-6C7C-1FF89BF97B7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6104,11 +6178,271 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D728AC-6A3A-4E80-8DE2-8EBB97E21A07}">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45258.555370370399</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45258.584571759297</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45258.593229166698</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45258.603888888902</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45258.660995370403</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45258.680659722202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6372,286 +6706,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D728AC-6A3A-4E80-8DE2-8EBB97E21A07}">
-  <dimension ref="A1:U4"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B64105-394D-4C9C-A95C-8BF68AFA6FB4}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:U4"/>
+    <sheetView topLeftCell="A7" zoomScale="33" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>45258.555370370399</v>
-      </c>
-      <c r="C2" s="7">
-        <v>45258.584571759297</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
-        <v>45258.593229166698</v>
-      </c>
-      <c r="C3" s="7">
-        <v>45258.603888888902</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>45258.660995370403</v>
-      </c>
-      <c r="C4" s="7">
-        <v>45258.680659722202</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAAF906-A6F0-4D74-AF6E-1A4D700DFC6F}">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView zoomScale="55" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="8"/>
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
@@ -6669,15 +6745,15 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <f>COUNTIF('raw_data_intent-less'!G:G, "nicht hilfreich ")</f>
+        <f>COUNTIF('raw_data_intent-based'!G:G, "nicht hilfreich")</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIF('raw_data_intent-based'!G:G, "akzeptabel")</f>
         <v>0</v>
       </c>
-      <c r="C3">
-        <f>COUNTIF('raw_data_intent-less'!G:G, "akzeptabel")</f>
-        <v>1</v>
-      </c>
       <c r="D3">
-        <f>COUNTIF('raw_data_intent-less'!G:G, "hilfreich")</f>
+        <f>COUNTIF('raw_data_intent-based'!G:G, "hilfreich")</f>
         <v>2</v>
       </c>
     </row>
@@ -6686,15 +6762,15 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <f>COUNTIF('raw_data_intent-less'!H:H, "nicht hilfreich ")</f>
+        <f>COUNTIF('raw_data_intent-based'!H:H, "nicht hilfreich")</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>COUNTIF('raw_data_intent-less'!H:H, "akzeptabel")</f>
+        <f>COUNTIF('raw_data_intent-based'!H:H, "akzeptabel")</f>
         <v>1</v>
       </c>
       <c r="D4">
-        <f>COUNTIF('raw_data_intent-less'!H:H, "hilfreich")</f>
+        <f>COUNTIF('raw_data_intent-based'!H:H, "hilfreich")</f>
         <v>2</v>
       </c>
     </row>
@@ -6703,15 +6779,15 @@
         <v>33</v>
       </c>
       <c r="B5">
-        <f>COUNTIF('raw_data_intent-less'!I:I, "nicht hilfreich ")</f>
+        <f>COUNTIF('raw_data_intent-based'!I:I, "nicht hilfreich")</f>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIF('raw_data_intent-based'!I:I, "akzeptabel")</f>
         <v>0</v>
       </c>
-      <c r="C5">
-        <f>COUNTIF('raw_data_intent-less'!I:I, "akzeptabel")</f>
-        <v>1</v>
-      </c>
       <c r="D5">
-        <f>COUNTIF('raw_data_intent-less'!I:I, "hilfreich")</f>
+        <f>COUNTIF('raw_data_intent-based'!I:I, "hilfreich")</f>
         <v>2</v>
       </c>
     </row>
@@ -6720,16 +6796,16 @@
         <v>34</v>
       </c>
       <c r="B6">
-        <f>COUNTIF('raw_data_intent-less'!J:J, "nicht hilfreich ")</f>
+        <f>COUNTIF('raw_data_intent-based'!J:J, "nicht hilfreich")</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <f>COUNTIF('raw_data_intent-less'!J:J, "akzeptabel")</f>
+        <f>COUNTIF('raw_data_intent-based'!J:J, "akzeptabel")</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIF('raw_data_intent-based'!J:J, "hilfreich")</f>
         <v>2</v>
-      </c>
-      <c r="D6">
-        <f>COUNTIF('raw_data_intent-less'!J:J, "hilfreich")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -6737,15 +6813,15 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <f>COUNTIF('raw_data_intent-less'!K:K, "nicht hilfreich ")</f>
+        <f>COUNTIF('raw_data_intent-based'!K:K, "nicht hilfreich")</f>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIF('raw_data_intent-based'!K:K, "akzeptabel")</f>
         <v>0</v>
       </c>
-      <c r="C7">
-        <f>COUNTIF('raw_data_intent-less'!K:K, "akzeptabel")</f>
-        <v>1</v>
-      </c>
       <c r="D7">
-        <f>COUNTIF('raw_data_intent-less'!K:K, "hilfreich")</f>
+        <f>COUNTIF('raw_data_intent-based'!K:K, "hilfreich")</f>
         <v>2</v>
       </c>
     </row>
@@ -6754,41 +6830,41 @@
         <v>36</v>
       </c>
       <c r="B8">
-        <f>COUNTIF('raw_data_intent-less'!L:L, "nicht hilfreich ")</f>
+        <f>COUNTIF('raw_data_intent-based'!L:L, "nicht hilfreich")</f>
         <v>0</v>
       </c>
       <c r="C8">
-        <f>COUNTIF('raw_data_intent-less'!L:L, "akzeptabel")</f>
+        <f>COUNTIF('raw_data_intent-based'!L:L, "akzeptabel")</f>
         <v>1</v>
       </c>
       <c r="D8">
-        <f>COUNTIF('raw_data_intent-less'!L:L, "hilfreich")</f>
+        <f>COUNTIF('raw_data_intent-based'!L:L, "hilfreich")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" t="s">
         <v>48</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -6796,6 +6872,394 @@
         <v>40</v>
       </c>
       <c r="B11">
+        <f>COUNTIF('raw_data_intent-based'!M:M, "Sehr Selten")</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>COUNTIF('raw_data_intent-based'!M:M, "Selten")</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>COUNTIF('raw_data_intent-based'!M:M, "Manchmal")</f>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f>COUNTIF('raw_data_intent-based'!M:M, "Oft")</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIF('raw_data_intent-based'!M:M, "Sehr Oft")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <f>COUNTIF('raw_data_intent-based'!N:N, "Sehr Selten")</f>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f>COUNTIF('raw_data_intent-based'!N:N, "Selten")</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>COUNTIF('raw_data_intent-based'!N:N, "Manchmal")</f>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>COUNTIF('raw_data_intent-based'!N:N, "Oft")</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>COUNTIF('raw_data_intent-based'!N:N, "Sehr Oft")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <f>COUNTIF('raw_data_intent-based'!O:O, "Sehr Selten")</f>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>COUNTIF('raw_data_intent-based'!O:O, "Selten")</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>COUNTIF('raw_data_intent-based'!O:O, "Manchmal")</f>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f>COUNTIF('raw_data_intent-based'!O:O, "Oft")</f>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f>COUNTIF('raw_data_intent-based'!O:O, "Sehr Oft")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <f>COUNTIF('raw_data_intent-based'!P:P, "Sehr Selten")</f>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f>COUNTIF('raw_data_intent-based'!P:P, "Selten")</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>COUNTIF('raw_data_intent-based'!P:P, "Manchmal")</f>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f>COUNTIF('raw_data_intent-based'!P:P, "Oft")</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>COUNTIF('raw_data_intent-based'!P:P, "Sehr Oft")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15">
+        <f>COUNTIF('raw_data_intent-based'!Q:Q, "Sehr Selten")</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>COUNTIF('raw_data_intent-based'!Q:Q, "Selten")</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>COUNTIF('raw_data_intent-based'!Q:Q, "Manchmal")</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>COUNTIF('raw_data_intent-based'!Q:Q, "Oft")</f>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f>COUNTIF('raw_data_intent-based'!Q:Q, "Sehr Oft")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <f>COUNTIF('raw_data_intent-based'!R:R, "Sehr Selten")</f>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f>COUNTIF('raw_data_intent-based'!R:R, "Selten")</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>COUNTIF('raw_data_intent-based'!R:R, "Manchmal")</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>COUNTIF('raw_data_intent-based'!R:R, "Oft")</f>
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <f>COUNTIF('raw_data_intent-based'!R:R, "Sehr Oft")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <f>COUNTIF('raw_data_intent-based'!S:S, "Sehr Selten")</f>
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f>COUNTIF('raw_data_intent-based'!S:S, "Selten")</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>COUNTIF('raw_data_intent-based'!S:S, "Manchmal")</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>COUNTIF('raw_data_intent-based'!S:S, "Oft")</f>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f>COUNTIF('raw_data_intent-based'!S:S, "Sehr Oft")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18">
+        <f>COUNTIF('raw_data_intent-based'!T:T, "Sehr Selten")</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>COUNTIF('raw_data_intent-based'!T:T, "Selten")</f>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f>COUNTIF('raw_data_intent-based'!T:T, "Manchmal")</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>COUNTIF('raw_data_intent-based'!T:T, "Oft")</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>COUNTIF('raw_data_intent-based'!T:T, "Sehr Oft")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="105.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="105.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAAF906-A6F0-4D74-AF6E-1A4D700DFC6F}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="6" max="7" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF('raw_data_intent-less'!G:G, "nicht hilfreich ")</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIF('raw_data_intent-less'!G:G, "akzeptabel")</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIF('raw_data_intent-less'!G:G, "hilfreich")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF('raw_data_intent-less'!H:H, "nicht hilfreich ")</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIF('raw_data_intent-less'!H:H, "akzeptabel")</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIF('raw_data_intent-less'!H:H, "hilfreich")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <f>COUNTIF('raw_data_intent-less'!I:I, "nicht hilfreich ")</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIF('raw_data_intent-less'!I:I, "akzeptabel")</f>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIF('raw_data_intent-less'!I:I, "hilfreich")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <f>COUNTIF('raw_data_intent-less'!J:J, "nicht hilfreich ")</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIF('raw_data_intent-less'!J:J, "akzeptabel")</f>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIF('raw_data_intent-less'!J:J, "hilfreich")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <f>COUNTIF('raw_data_intent-less'!K:K, "nicht hilfreich ")</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIF('raw_data_intent-less'!K:K, "akzeptabel")</f>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIF('raw_data_intent-less'!K:K, "hilfreich")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <f>COUNTIF('raw_data_intent-less'!L:L, "nicht hilfreich ")</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>COUNTIF('raw_data_intent-less'!L:L, "akzeptabel")</f>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIF('raw_data_intent-less'!L:L, "hilfreich")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
         <f>COUNTIF('raw_data_intent-less'!M:M, "Sehr Selten")</f>
         <v>0</v>
       </c>
@@ -6818,7 +7282,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <f>COUNTIF('raw_data_intent-less'!N:N, "Sehr Selten")</f>
@@ -6843,7 +7307,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <f>COUNTIF('raw_data_intent-less'!O:O, "Sehr Selten")</f>
@@ -6868,7 +7332,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14">
         <f>COUNTIF('raw_data_intent-less'!P:P, "Sehr Selten")</f>
@@ -6893,7 +7357,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <f>COUNTIF('raw_data_intent-less'!Q:Q, "Sehr Selten")</f>
@@ -6918,7 +7382,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16">
         <f>COUNTIF('raw_data_intent-less'!R:R, "Sehr Selten")</f>
@@ -6943,7 +7407,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17">
         <f>COUNTIF('raw_data_intent-less'!S:S, "Sehr Selten")</f>
@@ -6968,7 +7432,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18">
         <f>COUNTIF('raw_data_intent-less'!T:T, "Sehr Selten")</f>
@@ -6993,7 +7457,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -7014,425 +7478,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B64105-394D-4C9C-A95C-8BF68AFA6FB4}">
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="6">
-        <f>COUNTIF('raw_data_intent-based'!G:G, "nicht hilfreich ")</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <f>COUNTIF('raw_data_intent-based'!G:G, "akzeptabel")</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <f>COUNTIF('raw_data_intent-based'!G:G, "hilfreich")</f>
-        <v>2</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="6">
-        <f>COUNTIF('raw_data_intent-based'!H:H, "nicht hilfreich ")</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <f>COUNTIF('raw_data_intent-based'!H:H, "akzeptabel")</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <f>COUNTIF('raw_data_intent-based'!H:H, "hilfreich")</f>
-        <v>2</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="6">
-        <f>COUNTIF('raw_data_intent-based'!I:I, "nicht hilfreich ")</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <f>COUNTIF('raw_data_intent-based'!I:I, "akzeptabel")</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <f>COUNTIF('raw_data_intent-based'!I:I, "hilfreich")</f>
-        <v>2</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="6">
-        <f>COUNTIF('raw_data_intent-based'!J:J, "nicht hilfreich ")</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <f>COUNTIF('raw_data_intent-based'!J:J, "akzeptabel")</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <f>COUNTIF('raw_data_intent-based'!J:J, "hilfreich")</f>
-        <v>2</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="6">
-        <f>COUNTIF('raw_data_intent-based'!K:K, "nicht hilfreich ")</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <f>COUNTIF('raw_data_intent-based'!K:K, "akzeptabel")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <f>COUNTIF('raw_data_intent-based'!K:K, "hilfreich")</f>
-        <v>2</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="6">
-        <f>COUNTIF('raw_data_intent-based'!L:L, "nicht hilfreich ")</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <f>COUNTIF('raw_data_intent-based'!L:L, "akzeptabel")</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <f>COUNTIF('raw_data_intent-based'!L:L, "hilfreich")</f>
-        <v>2</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="6">
-        <f>COUNTIF('raw_data_intent-based'!M:M, "Sehr Selten")</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="6">
-        <f>COUNTIF('raw_data_intent-based'!M:M, "Selten")</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <f>COUNTIF('raw_data_intent-based'!M:M, "Manchmal")</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
-        <f>COUNTIF('raw_data_intent-based'!M:M, "Oft")</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <f>COUNTIF('raw_data_intent-based'!M:M, "Sehr Oft")</f>
-        <v>2</v>
-      </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="6">
-        <f>COUNTIF('raw_data_intent-based'!N:N, "Sehr Selten")</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="6">
-        <f>COUNTIF('raw_data_intent-based'!N:N, "Selten")</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <f>COUNTIF('raw_data_intent-based'!N:N, "Manchmal")</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="6">
-        <f>COUNTIF('raw_data_intent-based'!N:N, "Oft")</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <f>COUNTIF('raw_data_intent-based'!N:N, "Sehr Oft")</f>
-        <v>2</v>
-      </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="6">
-        <f>COUNTIF('raw_data_intent-based'!O:O, "Sehr Selten")</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="6">
-        <f>COUNTIF('raw_data_intent-based'!O:O, "Selten")</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <f>COUNTIF('raw_data_intent-based'!O:O, "Manchmal")</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <f>COUNTIF('raw_data_intent-based'!O:O, "Oft")</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <f>COUNTIF('raw_data_intent-based'!O:O, "Sehr Oft")</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="6">
-        <f>COUNTIF('raw_data_intent-based'!P:P, "Sehr Selten")</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
-        <f>COUNTIF('raw_data_intent-based'!P:P, "Selten")</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <f>COUNTIF('raw_data_intent-based'!P:P, "Manchmal")</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
-        <f>COUNTIF('raw_data_intent-based'!P:P, "Oft")</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <f>COUNTIF('raw_data_intent-based'!P:P, "Sehr Oft")</f>
-        <v>2</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="6">
-        <f>COUNTIF('raw_data_intent-based'!Q:Q, "Sehr Selten")</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="6">
-        <f>COUNTIF('raw_data_intent-based'!Q:Q, "Selten")</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <f>COUNTIF('raw_data_intent-based'!Q:Q, "Manchmal")</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <f>COUNTIF('raw_data_intent-based'!Q:Q, "Oft")</f>
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <f>COUNTIF('raw_data_intent-based'!Q:Q, "Sehr Oft")</f>
-        <v>2</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="6">
-        <f>COUNTIF('raw_data_intent-based'!R:R, "Sehr Selten")</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
-        <f>COUNTIF('raw_data_intent-based'!R:R, "Selten")</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <f>COUNTIF('raw_data_intent-based'!R:R, "Manchmal")</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <f>COUNTIF('raw_data_intent-based'!R:R, "Oft")</f>
-        <v>2</v>
-      </c>
-      <c r="F16" s="6">
-        <f>COUNTIF('raw_data_intent-based'!R:R, "Sehr Oft")</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="6">
-        <f>COUNTIF('raw_data_intent-based'!S:S, "Sehr Selten")</f>
-        <v>2</v>
-      </c>
-      <c r="C17" s="6">
-        <f>COUNTIF('raw_data_intent-based'!S:S, "Selten")</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <f>COUNTIF('raw_data_intent-based'!S:S, "Manchmal")</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <f>COUNTIF('raw_data_intent-based'!S:S, "Oft")</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <f>COUNTIF('raw_data_intent-based'!S:S, "Sehr Oft")</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="6">
-        <f>COUNTIF('raw_data_intent-based'!T:T, "Sehr Selten")</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="6">
-        <f>COUNTIF('raw_data_intent-based'!T:T, "Selten")</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <f>COUNTIF('raw_data_intent-based'!T:T, "Manchmal")</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <f>COUNTIF('raw_data_intent-based'!T:T, "Oft")</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <f>COUNTIF('raw_data_intent-based'!T:T, "Sehr Oft")</f>
-        <v>2</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="105.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="105.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/testing/human_evaluation/human_evaluation_raw_data_and_visualization.xlsx
+++ b/testing/human_evaluation/human_evaluation_raw_data_and_visualization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimberly Kent\Documents\Master\HS23\Masterarbeit\Masters-Thesis\testing\human_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A215684D-C112-4984-8498-C3B6CD16CDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7014D3-E221-4FDD-B6FD-506D488D0F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="797" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,7 +485,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C24D2C"/>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -494,6 +497,76 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-89ED-4176-BB0A-A468567AF970}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-89ED-4176-BB0A-A468567AF970}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-89ED-4176-BB0A-A468567AF970}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-89ED-4176-BB0A-A468567AF970}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-89ED-4176-BB0A-A468567AF970}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-89ED-4176-BB0A-A468567AF970}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-89ED-4176-BB0A-A468567AF970}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -814,6 +887,46 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-89ED-4176-BB0A-A468567AF970}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-89ED-4176-BB0A-A468567AF970}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-89ED-4176-BB0A-A468567AF970}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-89ED-4176-BB0A-A468567AF970}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -967,6 +1080,46 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-89ED-4176-BB0A-A468567AF970}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-89ED-4176-BB0A-A468567AF970}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-89ED-4176-BB0A-A468567AF970}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-89ED-4176-BB0A-A468567AF970}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1117,6 +1270,16 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-89ED-4176-BB0A-A468567AF970}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1565,6 +1728,36 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5D5E-43F2-9197-9DC2EE441031}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5D5E-43F2-9197-9DC2EE441031}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5D5E-43F2-9197-9DC2EE441031}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2648,6 +2841,76 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-06B4-4E61-B988-9E87B58D00AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-06B4-4E61-B988-9E87B58D00AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-06B4-4E61-B988-9E87B58D00AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-06B4-4E61-B988-9E87B58D00AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-06B4-4E61-B988-9E87B58D00AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-06B4-4E61-B988-9E87B58D00AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-06B4-4E61-B988-9E87B58D00AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2893,6 +3156,66 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-06B4-4E61-B988-9E87B58D00AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-06B4-4E61-B988-9E87B58D00AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-06B4-4E61-B988-9E87B58D00AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-06B4-4E61-B988-9E87B58D00AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-06B4-4E61-B988-9E87B58D00AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-06B4-4E61-B988-9E87B58D00AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3196,6 +3519,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-06B4-4E61-B988-9E87B58D00AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-06B4-4E61-B988-9E87B58D00AB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6710,8 +7053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B64105-394D-4C9C-A95C-8BF68AFA6FB4}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="33" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A11" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7099,13 +7442,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAAF906-A6F0-4D74-AF6E-1A4D700DFC6F}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="26.26953125" customWidth="1"/>
     <col min="6" max="7" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
